--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -124,10 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"msg":"登录成功","code":"200"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,6 +193,10 @@
   </si>
   <si>
     <t>{"username": "wenwen", "password": "2345","age":"18"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"msg":"success","code":"200"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -807,7 +807,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -829,13 +829,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
         <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
         <v>28</v>
@@ -855,22 +855,22 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
         <v>47</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -881,22 +881,22 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -907,22 +907,22 @@
         <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -933,22 +933,22 @@
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -959,22 +959,22 @@
         <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
   <si>
     <t>case_id</t>
   </si>
@@ -132,10 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://127.0.0.1:5000/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>method</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,15 +184,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{"username": "wenwen", "password": "2345","age":"18"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"msg":"success","code":"200"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么参数都不传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://124.222.112.42:5000/api/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"code": "444</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>", "msg": "请填写参数"}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{"code": "444", "msg": "缺少必填的参数"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"username": "wenwen", "password": "2345","age":"18"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"msg":"success","code":"200"}</t>
+    <t>{"code": "444", "msg": "缺少必填的参数"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -804,17 +832,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.1796875" customWidth="1"/>
     <col min="2" max="3" width="19.1796875" customWidth="1"/>
-    <col min="4" max="4" width="34.6328125" customWidth="1"/>
+    <col min="4" max="4" width="41.36328125" customWidth="1"/>
     <col min="5" max="5" width="19.1796875" customWidth="1"/>
     <col min="6" max="6" width="41.26953125" customWidth="1"/>
     <col min="7" max="7" width="79.6328125" customWidth="1"/>
@@ -835,7 +863,7 @@
         <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
         <v>28</v>
@@ -858,19 +886,19 @@
         <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -881,22 +909,22 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -907,22 +935,22 @@
         <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -933,22 +961,22 @@
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -959,29 +987,52 @@
         <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3:D6" r:id="rId2" display="http://127.0.0.1:5000/login"/>
+    <hyperlink ref="D3:D7" r:id="rId2" display="http://124.222.112.42:5000/api/login"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -835,7 +835,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
